--- a/data_02.xlsx
+++ b/data_02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sets" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="S" sheetId="6" r:id="rId4"/>
     <sheet name="T" sheetId="4" r:id="rId5"/>
     <sheet name="N" sheetId="5" r:id="rId6"/>
+    <sheet name="M" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>a(c,p)</t>
   </si>
@@ -62,6 +63,15 @@
   </si>
   <si>
     <t>s(j,c)</t>
+  </si>
+  <si>
+    <t>start_hour</t>
+  </si>
+  <si>
+    <t>start_min</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
 </sst>
 </file>
@@ -389,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2873,4 +2883,159 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>